--- a/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
+++ b/InputData/indst/PPRiFUfIIaIoE/Pot Perc Red in Fuel Use fr Impr Inst and Integ of Eqpt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipC\InputData\indst\PPRiFUfIIaIoE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PPRiFUfIIaIoE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>Model End Year</t>
   </si>
   <si>
-    <t>Pot Perc Red in Fuel Use</t>
-  </si>
-  <si>
     <t>Percentage Savings in End Year</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>PPRiFUfIIaIoE Potential Perc Reduction in Fuel Use from Improved Installation and Integration of Eqpt</t>
+  </si>
+  <si>
+    <t>Pot Perc Red in Fuel Use (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -193,15 +193,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -512,18 +512,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,39 +531,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -581,13 +581,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.3984375" customWidth="1"/>
+    <col min="2" max="2" width="31.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -595,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -603,7 +603,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -611,7 +611,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -620,7 +620,7 @@
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -628,9 +628,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7">
         <f>B5*(B6-2010)/(2050-2010)</f>
@@ -649,86 +649,88 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.265625" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Data!B$7</f>
+        <v>3.6065573770491806E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B3" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B4" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B5" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B6" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11">
-        <f>Data!B$7</f>
-        <v>3.6065573770491806E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f>Data!B$7</f>
         <v>3.6065573770491806E-2</v>
       </c>
